--- a/doc/4.テスト/04_テスト仕様書_テスト結果報告書_松井.xlsx
+++ b/doc/4.テスト/04_テスト仕様書_テスト結果報告書_松井.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\4.テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BC93582-C1AF-4475-AAC0-B762F258A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F5DFC-1BC5-49FD-B465-2172B3336567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -431,6 +431,33 @@
     <t>松井</t>
     <rPh sb="0" eb="2">
       <t>マツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンルで絞り込みされず検索ワードでの検索結果のみ表示される</t>
+    <rPh sb="5" eb="6">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -776,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -787,7 +814,7 @@
     <col min="5" max="5" width="23.8984375" customWidth="1"/>
     <col min="6" max="6" width="59.296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.19921875" customWidth="1"/>
@@ -852,7 +879,9 @@
         <v>45</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>60</v>
       </c>
@@ -884,8 +913,12 @@
       <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>60</v>
       </c>
@@ -916,7 +949,9 @@
         <v>47</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>60</v>
       </c>
@@ -947,7 +982,9 @@
         <v>48</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>60</v>
       </c>
@@ -980,7 +1017,9 @@
         <v>49</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>60</v>
       </c>
@@ -1011,7 +1050,9 @@
         <v>50</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1042,7 +1083,9 @@
         <v>51</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1073,7 +1116,9 @@
         <v>52</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>60</v>
       </c>
@@ -1104,7 +1149,9 @@
         <v>54</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1135,7 +1182,9 @@
         <v>53</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>60</v>
       </c>
@@ -1168,7 +1217,9 @@
         <v>55</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1199,7 +1250,9 @@
         <v>56</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>60</v>
       </c>
@@ -1230,7 +1283,9 @@
         <v>57</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>60</v>
       </c>
@@ -1261,7 +1316,9 @@
         <v>58</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>60</v>
       </c>

--- a/doc/4.テスト/04_テスト仕様書_テスト結果報告書_松井.xlsx
+++ b/doc/4.テスト/04_テスト仕様書_テスト結果報告書_松井.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\4.テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F5DFC-1BC5-49FD-B465-2172B3336567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B369C9B-105F-447F-83BB-91AC07910537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>開いているモーダルを閉じる</t>
-  </si>
-  <si>
-    <t>開いているモーダルを閉じる</t>
     <rPh sb="0" eb="1">
       <t>ヒラ</t>
     </rPh>
@@ -459,6 +456,55 @@
     <rPh sb="25" eb="27">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気になる！ボタンをクリック</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気になる！ボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気になる！ボタンが反転して気になったボタンになる</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v1.02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ページOK</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームのみOK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開いているモーダルを閉じる</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -803,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -880,18 +926,20 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2">
         <v>45470</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="1">
@@ -914,21 +962,23 @@
         <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2">
         <v>45470</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="1">
@@ -950,18 +1000,20 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5" s="2">
         <v>45470</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="1">
@@ -983,18 +1035,20 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6" s="2">
         <v>45470</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="1">
@@ -1018,18 +1072,20 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7" s="2">
         <v>45470</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="1">
@@ -1051,18 +1107,20 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K8" s="2">
         <v>45470</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="1">
@@ -1084,18 +1142,20 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="2">
         <v>45470</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="1">
@@ -1117,18 +1177,20 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="2">
         <v>45470</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="1">
@@ -1137,31 +1199,33 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11" s="2">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="1">
@@ -1170,99 +1234,105 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12" s="2">
         <v>45470</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="2">
         <v>45470</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14" s="2">
         <v>45470</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="1">
@@ -1271,31 +1341,33 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="2">
         <v>45470</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="1">
@@ -1304,31 +1376,33 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16" s="2">
         <v>45470</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="1">
@@ -1336,16 +1410,34 @@
         <v>15</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="2">
+        <v>45470</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="1">
